--- a/Doc/2.UI/外注チェック/ファイル仕様書_外注チェック.xlsx
+++ b/Doc/2.UI/外注チェック/ファイル仕様書_外注チェック.xlsx
@@ -4,25 +4,37 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6600" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="7800" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="ファイル一覧" sheetId="6" r:id="rId1"/>
     <sheet name="抽出対象条件" sheetId="4" r:id="rId2"/>
+    <sheet name="エラーメッセージ" sheetId="7" r:id="rId3"/>
+    <sheet name="コード" sheetId="8" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="IO区分">[1]リスト内容!$A$1:$A$3</definedName>
+    <definedName name="wエラー項目">コード!$A$1:$B$10</definedName>
+    <definedName name="システム名" localSheetId="2">#REF!</definedName>
     <definedName name="システム名">#REF!</definedName>
+    <definedName name="管理№" localSheetId="2">#REF!</definedName>
     <definedName name="管理№">#REF!</definedName>
+    <definedName name="管理番号" localSheetId="2">#REF!</definedName>
     <definedName name="管理番号">#REF!</definedName>
+    <definedName name="更新者" localSheetId="2">#REF!</definedName>
     <definedName name="更新者">#REF!</definedName>
+    <definedName name="更新日" localSheetId="2">#REF!</definedName>
     <definedName name="更新日">#REF!</definedName>
+    <definedName name="作成者" localSheetId="2">#REF!</definedName>
     <definedName name="作成者">#REF!</definedName>
+    <definedName name="作成日" localSheetId="2">#REF!</definedName>
     <definedName name="作成日">#REF!</definedName>
+    <definedName name="種類" localSheetId="2">#REF!</definedName>
     <definedName name="種類">#REF!</definedName>
+    <definedName name="版" localSheetId="2">#REF!</definedName>
     <definedName name="版">#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -35,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -180,6 +192,72 @@
     <t>抽出対象条件</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>エラーメッセージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XML</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他システムでエラーメッセージがあるならテーブル化してもいいかも。。。</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーメッセージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コード</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>契約番号が不明です。</t>
+  </si>
+  <si>
+    <t>契約番号が重複しています。</t>
+  </si>
+  <si>
+    <t>当該契約番号が使用不可になっています。</t>
+  </si>
+  <si>
+    <t>当該契約番号の支払額が契約額と一致しません。</t>
+  </si>
+  <si>
+    <t>当該契約番号の契約額は変更している恐れがあります。</t>
+  </si>
+  <si>
+    <t>当該契約番号の区分コードが正しく入力されていません。</t>
+  </si>
+  <si>
+    <t>当該契約番号の区分コードが部分払なのに契約額と一致してます。</t>
+  </si>
+  <si>
+    <t>当該契約番号の区分コードが完払なのに契約額と一致していません。</t>
+  </si>
+  <si>
+    <t>税抜\100,000以上なのに契約番号がありません。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーメッセージ</t>
+    <phoneticPr fontId="11"/>
+  </si>
 </sst>
 </file>
 
@@ -188,7 +266,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -249,6 +327,27 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -276,7 +375,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -632,8 +731,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -642,8 +791,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -791,12 +941,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="ハイパーリンク" xfId="2" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1"/>
     <cellStyle name="標準 3" xfId="3"/>
+    <cellStyle name="標準 4" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1382,11 +1542,13 @@
       <c r="BW5" s="16"/>
     </row>
     <row r="6" spans="1:75">
-      <c r="B6" s="21" t="str">
+      <c r="B6" s="21">
         <f t="shared" ref="B6:B38" si="0">IF(C6&lt;&gt;"",ROW()-4,"")</f>
-        <v/>
-      </c>
-      <c r="C6" s="17"/>
+        <v>2</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>25</v>
+      </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
@@ -1410,18 +1572,24 @@
       <c r="X6" s="14"/>
       <c r="Y6" s="14"/>
       <c r="Z6" s="16"/>
-      <c r="AA6" s="28"/>
+      <c r="AA6" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="AB6" s="29"/>
       <c r="AC6" s="29"/>
       <c r="AD6" s="29"/>
       <c r="AE6" s="30"/>
-      <c r="AF6" s="28"/>
+      <c r="AF6" s="28" t="s">
+        <v>27</v>
+      </c>
       <c r="AG6" s="29"/>
       <c r="AH6" s="29"/>
       <c r="AI6" s="29"/>
       <c r="AJ6" s="29"/>
       <c r="AK6" s="30"/>
-      <c r="AL6" s="17"/>
+      <c r="AL6" s="17" t="s">
+        <v>28</v>
+      </c>
       <c r="AM6" s="14"/>
       <c r="AN6" s="14"/>
       <c r="AO6" s="19"/>
@@ -4069,6 +4237,7 @@
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="C5" location="抽出対象条件!A1" display="抽出対象条件"/>
+    <hyperlink ref="C6" location="エラーメッセージ!A1" display="エラーメッセージ"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="37" orientation="portrait" r:id="rId1"/>
@@ -4387,4 +4556,406 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+    <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.625" customWidth="1"/>
+    <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="10.625" customWidth="1"/>
+    <col min="6" max="6" width="50.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7">
+      <c r="B2" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="43"/>
+      <c r="D4" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+    </row>
+    <row r="5" spans="2:7" ht="15" thickBot="1"/>
+    <row r="6" spans="2:7" ht="15" thickBot="1">
+      <c r="B6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="15" thickTop="1">
+      <c r="B7" s="2">
+        <f>IF(C7&lt;&gt;"",ROW()-6,"")</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="10">
+        <f t="shared" ref="B8:B28" si="0">IF(C8&lt;&gt;"",ROW()-6,"")</f>
+        <v>2</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="24"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="24"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="24"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="24"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="24"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="24"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="13"/>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="24"/>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="24"/>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="24"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="24"/>
+    </row>
+    <row r="28" spans="2:6" ht="15" thickBot="1">
+      <c r="B28" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:F4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="5.875" style="49" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.5" style="49" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="49"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1">
+      <c r="A1" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" thickTop="1">
+      <c r="A2" s="50">
+        <v>1</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="54">
+        <v>2</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="54">
+        <v>3</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="54">
+        <v>4</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="54">
+        <v>5</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="54">
+        <v>6</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="54">
+        <v>7</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="54">
+        <v>8</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16.5" thickBot="1">
+      <c r="A10" s="51">
+        <v>9</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Doc/2.UI/外注チェック/ファイル仕様書_外注チェック.xlsx
+++ b/Doc/2.UI/外注チェック/ファイル仕様書_外注チェック.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7800" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="8400" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="ファイル一覧" sheetId="6" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -258,6 +258,19 @@
     <t>エラーメッセージ</t>
     <phoneticPr fontId="11"/>
   </si>
+  <si>
+    <t>固定値でクエリの抽出条件となっている情報</t>
+    <rPh sb="0" eb="3">
+      <t>コテイチ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>チュウシュツジョウケン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -878,69 +891,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="4" applyFont="1" applyBorder="1"/>
@@ -950,6 +900,69 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="ハイパーリンク" xfId="2" builtinId="8"/>
@@ -1291,170 +1304,170 @@
       </c>
     </row>
     <row r="3" spans="1:75">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="36" t="s">
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37"/>
-      <c r="AD3" s="37"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="36" t="s">
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="44"/>
+      <c r="AF3" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="AG3" s="37"/>
-      <c r="AH3" s="37"/>
-      <c r="AI3" s="37"/>
-      <c r="AJ3" s="37"/>
-      <c r="AK3" s="38"/>
-      <c r="AL3" s="36" t="s">
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="44"/>
+      <c r="AL3" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="AM3" s="37"/>
-      <c r="AN3" s="37"/>
-      <c r="AO3" s="37"/>
-      <c r="AP3" s="37"/>
-      <c r="AQ3" s="37"/>
-      <c r="AR3" s="37"/>
-      <c r="AS3" s="37"/>
-      <c r="AT3" s="37"/>
-      <c r="AU3" s="37"/>
-      <c r="AV3" s="37"/>
-      <c r="AW3" s="37"/>
-      <c r="AX3" s="37"/>
-      <c r="AY3" s="37"/>
-      <c r="AZ3" s="37"/>
-      <c r="BA3" s="37"/>
-      <c r="BB3" s="37"/>
-      <c r="BC3" s="37"/>
-      <c r="BD3" s="37"/>
-      <c r="BE3" s="37"/>
-      <c r="BF3" s="37"/>
-      <c r="BG3" s="37"/>
-      <c r="BH3" s="37"/>
-      <c r="BI3" s="37"/>
-      <c r="BJ3" s="37"/>
-      <c r="BK3" s="37"/>
-      <c r="BL3" s="37"/>
-      <c r="BM3" s="37"/>
-      <c r="BN3" s="37"/>
-      <c r="BO3" s="37"/>
-      <c r="BP3" s="37"/>
-      <c r="BQ3" s="37"/>
-      <c r="BR3" s="37"/>
-      <c r="BS3" s="37"/>
-      <c r="BT3" s="37"/>
-      <c r="BU3" s="37"/>
-      <c r="BV3" s="37"/>
-      <c r="BW3" s="38"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="43"/>
+      <c r="AO3" s="43"/>
+      <c r="AP3" s="43"/>
+      <c r="AQ3" s="43"/>
+      <c r="AR3" s="43"/>
+      <c r="AS3" s="43"/>
+      <c r="AT3" s="43"/>
+      <c r="AU3" s="43"/>
+      <c r="AV3" s="43"/>
+      <c r="AW3" s="43"/>
+      <c r="AX3" s="43"/>
+      <c r="AY3" s="43"/>
+      <c r="AZ3" s="43"/>
+      <c r="BA3" s="43"/>
+      <c r="BB3" s="43"/>
+      <c r="BC3" s="43"/>
+      <c r="BD3" s="43"/>
+      <c r="BE3" s="43"/>
+      <c r="BF3" s="43"/>
+      <c r="BG3" s="43"/>
+      <c r="BH3" s="43"/>
+      <c r="BI3" s="43"/>
+      <c r="BJ3" s="43"/>
+      <c r="BK3" s="43"/>
+      <c r="BL3" s="43"/>
+      <c r="BM3" s="43"/>
+      <c r="BN3" s="43"/>
+      <c r="BO3" s="43"/>
+      <c r="BP3" s="43"/>
+      <c r="BQ3" s="43"/>
+      <c r="BR3" s="43"/>
+      <c r="BS3" s="43"/>
+      <c r="BT3" s="43"/>
+      <c r="BU3" s="43"/>
+      <c r="BV3" s="43"/>
+      <c r="BW3" s="44"/>
     </row>
     <row r="4" spans="1:75">
-      <c r="B4" s="32"/>
-      <c r="C4" s="33" t="s">
+      <c r="B4" s="38"/>
+      <c r="C4" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="33" t="s">
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="40"/>
-      <c r="AC4" s="40"/>
-      <c r="AD4" s="40"/>
-      <c r="AE4" s="41"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="40"/>
-      <c r="AH4" s="40"/>
-      <c r="AI4" s="40"/>
-      <c r="AJ4" s="40"/>
-      <c r="AK4" s="41"/>
-      <c r="AL4" s="39"/>
-      <c r="AM4" s="40"/>
-      <c r="AN4" s="40"/>
-      <c r="AO4" s="40"/>
-      <c r="AP4" s="40"/>
-      <c r="AQ4" s="40"/>
-      <c r="AR4" s="40"/>
-      <c r="AS4" s="40"/>
-      <c r="AT4" s="40"/>
-      <c r="AU4" s="40"/>
-      <c r="AV4" s="40"/>
-      <c r="AW4" s="40"/>
-      <c r="AX4" s="40"/>
-      <c r="AY4" s="40"/>
-      <c r="AZ4" s="40"/>
-      <c r="BA4" s="40"/>
-      <c r="BB4" s="40"/>
-      <c r="BC4" s="40"/>
-      <c r="BD4" s="40"/>
-      <c r="BE4" s="40"/>
-      <c r="BF4" s="40"/>
-      <c r="BG4" s="40"/>
-      <c r="BH4" s="40"/>
-      <c r="BI4" s="40"/>
-      <c r="BJ4" s="40"/>
-      <c r="BK4" s="40"/>
-      <c r="BL4" s="40"/>
-      <c r="BM4" s="40"/>
-      <c r="BN4" s="40"/>
-      <c r="BO4" s="40"/>
-      <c r="BP4" s="40"/>
-      <c r="BQ4" s="40"/>
-      <c r="BR4" s="40"/>
-      <c r="BS4" s="40"/>
-      <c r="BT4" s="40"/>
-      <c r="BU4" s="40"/>
-      <c r="BV4" s="40"/>
-      <c r="BW4" s="41"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="45"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="47"/>
+      <c r="AF4" s="45"/>
+      <c r="AG4" s="46"/>
+      <c r="AH4" s="46"/>
+      <c r="AI4" s="46"/>
+      <c r="AJ4" s="46"/>
+      <c r="AK4" s="47"/>
+      <c r="AL4" s="45"/>
+      <c r="AM4" s="46"/>
+      <c r="AN4" s="46"/>
+      <c r="AO4" s="46"/>
+      <c r="AP4" s="46"/>
+      <c r="AQ4" s="46"/>
+      <c r="AR4" s="46"/>
+      <c r="AS4" s="46"/>
+      <c r="AT4" s="46"/>
+      <c r="AU4" s="46"/>
+      <c r="AV4" s="46"/>
+      <c r="AW4" s="46"/>
+      <c r="AX4" s="46"/>
+      <c r="AY4" s="46"/>
+      <c r="AZ4" s="46"/>
+      <c r="BA4" s="46"/>
+      <c r="BB4" s="46"/>
+      <c r="BC4" s="46"/>
+      <c r="BD4" s="46"/>
+      <c r="BE4" s="46"/>
+      <c r="BF4" s="46"/>
+      <c r="BG4" s="46"/>
+      <c r="BH4" s="46"/>
+      <c r="BI4" s="46"/>
+      <c r="BJ4" s="46"/>
+      <c r="BK4" s="46"/>
+      <c r="BL4" s="46"/>
+      <c r="BM4" s="46"/>
+      <c r="BN4" s="46"/>
+      <c r="BO4" s="46"/>
+      <c r="BP4" s="46"/>
+      <c r="BQ4" s="46"/>
+      <c r="BR4" s="46"/>
+      <c r="BS4" s="46"/>
+      <c r="BT4" s="46"/>
+      <c r="BU4" s="46"/>
+      <c r="BV4" s="46"/>
+      <c r="BW4" s="47"/>
     </row>
     <row r="5" spans="1:75">
       <c r="B5" s="21">
@@ -1487,22 +1500,24 @@
       <c r="X5" s="14"/>
       <c r="Y5" s="14"/>
       <c r="Z5" s="16"/>
-      <c r="AA5" s="28" t="s">
+      <c r="AA5" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="AB5" s="29"/>
-      <c r="AC5" s="29"/>
-      <c r="AD5" s="29"/>
-      <c r="AE5" s="30"/>
-      <c r="AF5" s="28" t="s">
+      <c r="AB5" s="49"/>
+      <c r="AC5" s="49"/>
+      <c r="AD5" s="49"/>
+      <c r="AE5" s="50"/>
+      <c r="AF5" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="AG5" s="29"/>
-      <c r="AH5" s="29"/>
-      <c r="AI5" s="29"/>
-      <c r="AJ5" s="29"/>
-      <c r="AK5" s="30"/>
-      <c r="AL5" s="17"/>
+      <c r="AG5" s="49"/>
+      <c r="AH5" s="49"/>
+      <c r="AI5" s="49"/>
+      <c r="AJ5" s="49"/>
+      <c r="AK5" s="50"/>
+      <c r="AL5" s="17" t="s">
+        <v>42</v>
+      </c>
       <c r="AM5" s="14"/>
       <c r="AN5" s="14"/>
       <c r="AO5" s="19"/>
@@ -1572,21 +1587,21 @@
       <c r="X6" s="14"/>
       <c r="Y6" s="14"/>
       <c r="Z6" s="16"/>
-      <c r="AA6" s="28" t="s">
+      <c r="AA6" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="AB6" s="29"/>
-      <c r="AC6" s="29"/>
-      <c r="AD6" s="29"/>
-      <c r="AE6" s="30"/>
-      <c r="AF6" s="28" t="s">
+      <c r="AB6" s="49"/>
+      <c r="AC6" s="49"/>
+      <c r="AD6" s="49"/>
+      <c r="AE6" s="50"/>
+      <c r="AF6" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="AG6" s="29"/>
-      <c r="AH6" s="29"/>
-      <c r="AI6" s="29"/>
-      <c r="AJ6" s="29"/>
-      <c r="AK6" s="30"/>
+      <c r="AG6" s="49"/>
+      <c r="AH6" s="49"/>
+      <c r="AI6" s="49"/>
+      <c r="AJ6" s="49"/>
+      <c r="AK6" s="50"/>
       <c r="AL6" s="17" t="s">
         <v>28</v>
       </c>
@@ -1657,17 +1672,17 @@
       <c r="X7" s="14"/>
       <c r="Y7" s="14"/>
       <c r="Z7" s="16"/>
-      <c r="AA7" s="28"/>
-      <c r="AB7" s="29"/>
-      <c r="AC7" s="29"/>
-      <c r="AD7" s="29"/>
-      <c r="AE7" s="30"/>
-      <c r="AF7" s="28"/>
-      <c r="AG7" s="29"/>
-      <c r="AH7" s="29"/>
-      <c r="AI7" s="29"/>
-      <c r="AJ7" s="29"/>
-      <c r="AK7" s="30"/>
+      <c r="AA7" s="48"/>
+      <c r="AB7" s="49"/>
+      <c r="AC7" s="49"/>
+      <c r="AD7" s="49"/>
+      <c r="AE7" s="50"/>
+      <c r="AF7" s="48"/>
+      <c r="AG7" s="49"/>
+      <c r="AH7" s="49"/>
+      <c r="AI7" s="49"/>
+      <c r="AJ7" s="49"/>
+      <c r="AK7" s="50"/>
       <c r="AL7" s="17"/>
       <c r="AM7" s="14"/>
       <c r="AN7" s="14"/>
@@ -1736,17 +1751,17 @@
       <c r="X8" s="14"/>
       <c r="Y8" s="14"/>
       <c r="Z8" s="16"/>
-      <c r="AA8" s="28"/>
-      <c r="AB8" s="29"/>
-      <c r="AC8" s="29"/>
-      <c r="AD8" s="29"/>
-      <c r="AE8" s="30"/>
-      <c r="AF8" s="28"/>
-      <c r="AG8" s="29"/>
-      <c r="AH8" s="29"/>
-      <c r="AI8" s="29"/>
-      <c r="AJ8" s="29"/>
-      <c r="AK8" s="30"/>
+      <c r="AA8" s="48"/>
+      <c r="AB8" s="49"/>
+      <c r="AC8" s="49"/>
+      <c r="AD8" s="49"/>
+      <c r="AE8" s="50"/>
+      <c r="AF8" s="48"/>
+      <c r="AG8" s="49"/>
+      <c r="AH8" s="49"/>
+      <c r="AI8" s="49"/>
+      <c r="AJ8" s="49"/>
+      <c r="AK8" s="50"/>
       <c r="AL8" s="17"/>
       <c r="AM8" s="14"/>
       <c r="AN8" s="14"/>
@@ -1815,17 +1830,17 @@
       <c r="X9" s="14"/>
       <c r="Y9" s="14"/>
       <c r="Z9" s="16"/>
-      <c r="AA9" s="28"/>
-      <c r="AB9" s="29"/>
-      <c r="AC9" s="29"/>
-      <c r="AD9" s="29"/>
-      <c r="AE9" s="30"/>
-      <c r="AF9" s="28"/>
-      <c r="AG9" s="29"/>
-      <c r="AH9" s="29"/>
-      <c r="AI9" s="29"/>
-      <c r="AJ9" s="29"/>
-      <c r="AK9" s="30"/>
+      <c r="AA9" s="48"/>
+      <c r="AB9" s="49"/>
+      <c r="AC9" s="49"/>
+      <c r="AD9" s="49"/>
+      <c r="AE9" s="50"/>
+      <c r="AF9" s="48"/>
+      <c r="AG9" s="49"/>
+      <c r="AH9" s="49"/>
+      <c r="AI9" s="49"/>
+      <c r="AJ9" s="49"/>
+      <c r="AK9" s="50"/>
       <c r="AL9" s="17"/>
       <c r="AM9" s="14"/>
       <c r="AN9" s="14"/>
@@ -1894,17 +1909,17 @@
       <c r="X10" s="14"/>
       <c r="Y10" s="14"/>
       <c r="Z10" s="16"/>
-      <c r="AA10" s="28"/>
-      <c r="AB10" s="29"/>
-      <c r="AC10" s="29"/>
-      <c r="AD10" s="29"/>
-      <c r="AE10" s="30"/>
-      <c r="AF10" s="28"/>
-      <c r="AG10" s="29"/>
-      <c r="AH10" s="29"/>
-      <c r="AI10" s="29"/>
-      <c r="AJ10" s="29"/>
-      <c r="AK10" s="30"/>
+      <c r="AA10" s="48"/>
+      <c r="AB10" s="49"/>
+      <c r="AC10" s="49"/>
+      <c r="AD10" s="49"/>
+      <c r="AE10" s="50"/>
+      <c r="AF10" s="48"/>
+      <c r="AG10" s="49"/>
+      <c r="AH10" s="49"/>
+      <c r="AI10" s="49"/>
+      <c r="AJ10" s="49"/>
+      <c r="AK10" s="50"/>
       <c r="AL10" s="17"/>
       <c r="AM10" s="14"/>
       <c r="AN10" s="14"/>
@@ -1973,17 +1988,17 @@
       <c r="X11" s="14"/>
       <c r="Y11" s="14"/>
       <c r="Z11" s="16"/>
-      <c r="AA11" s="28"/>
-      <c r="AB11" s="29"/>
-      <c r="AC11" s="29"/>
-      <c r="AD11" s="29"/>
-      <c r="AE11" s="30"/>
-      <c r="AF11" s="28"/>
-      <c r="AG11" s="29"/>
-      <c r="AH11" s="29"/>
-      <c r="AI11" s="29"/>
-      <c r="AJ11" s="29"/>
-      <c r="AK11" s="30"/>
+      <c r="AA11" s="48"/>
+      <c r="AB11" s="49"/>
+      <c r="AC11" s="49"/>
+      <c r="AD11" s="49"/>
+      <c r="AE11" s="50"/>
+      <c r="AF11" s="48"/>
+      <c r="AG11" s="49"/>
+      <c r="AH11" s="49"/>
+      <c r="AI11" s="49"/>
+      <c r="AJ11" s="49"/>
+      <c r="AK11" s="50"/>
       <c r="AL11" s="17"/>
       <c r="AM11" s="14"/>
       <c r="AN11" s="14"/>
@@ -2052,17 +2067,17 @@
       <c r="X12" s="14"/>
       <c r="Y12" s="14"/>
       <c r="Z12" s="16"/>
-      <c r="AA12" s="28"/>
-      <c r="AB12" s="29"/>
-      <c r="AC12" s="29"/>
-      <c r="AD12" s="29"/>
-      <c r="AE12" s="30"/>
-      <c r="AF12" s="28"/>
-      <c r="AG12" s="29"/>
-      <c r="AH12" s="29"/>
-      <c r="AI12" s="29"/>
-      <c r="AJ12" s="29"/>
-      <c r="AK12" s="30"/>
+      <c r="AA12" s="48"/>
+      <c r="AB12" s="49"/>
+      <c r="AC12" s="49"/>
+      <c r="AD12" s="49"/>
+      <c r="AE12" s="50"/>
+      <c r="AF12" s="48"/>
+      <c r="AG12" s="49"/>
+      <c r="AH12" s="49"/>
+      <c r="AI12" s="49"/>
+      <c r="AJ12" s="49"/>
+      <c r="AK12" s="50"/>
       <c r="AL12" s="17"/>
       <c r="AM12" s="14"/>
       <c r="AN12" s="14"/>
@@ -2131,17 +2146,17 @@
       <c r="X13" s="14"/>
       <c r="Y13" s="14"/>
       <c r="Z13" s="16"/>
-      <c r="AA13" s="28"/>
-      <c r="AB13" s="29"/>
-      <c r="AC13" s="29"/>
-      <c r="AD13" s="29"/>
-      <c r="AE13" s="30"/>
-      <c r="AF13" s="28"/>
-      <c r="AG13" s="29"/>
-      <c r="AH13" s="29"/>
-      <c r="AI13" s="29"/>
-      <c r="AJ13" s="29"/>
-      <c r="AK13" s="30"/>
+      <c r="AA13" s="48"/>
+      <c r="AB13" s="49"/>
+      <c r="AC13" s="49"/>
+      <c r="AD13" s="49"/>
+      <c r="AE13" s="50"/>
+      <c r="AF13" s="48"/>
+      <c r="AG13" s="49"/>
+      <c r="AH13" s="49"/>
+      <c r="AI13" s="49"/>
+      <c r="AJ13" s="49"/>
+      <c r="AK13" s="50"/>
       <c r="AL13" s="17"/>
       <c r="AM13" s="14"/>
       <c r="AN13" s="14"/>
@@ -2210,17 +2225,17 @@
       <c r="X14" s="14"/>
       <c r="Y14" s="14"/>
       <c r="Z14" s="16"/>
-      <c r="AA14" s="28"/>
-      <c r="AB14" s="29"/>
-      <c r="AC14" s="29"/>
-      <c r="AD14" s="29"/>
-      <c r="AE14" s="30"/>
-      <c r="AF14" s="28"/>
-      <c r="AG14" s="29"/>
-      <c r="AH14" s="29"/>
-      <c r="AI14" s="29"/>
-      <c r="AJ14" s="29"/>
-      <c r="AK14" s="30"/>
+      <c r="AA14" s="48"/>
+      <c r="AB14" s="49"/>
+      <c r="AC14" s="49"/>
+      <c r="AD14" s="49"/>
+      <c r="AE14" s="50"/>
+      <c r="AF14" s="48"/>
+      <c r="AG14" s="49"/>
+      <c r="AH14" s="49"/>
+      <c r="AI14" s="49"/>
+      <c r="AJ14" s="49"/>
+      <c r="AK14" s="50"/>
       <c r="AL14" s="17"/>
       <c r="AM14" s="14"/>
       <c r="AN14" s="14"/>
@@ -2289,17 +2304,17 @@
       <c r="X15" s="14"/>
       <c r="Y15" s="14"/>
       <c r="Z15" s="16"/>
-      <c r="AA15" s="28"/>
-      <c r="AB15" s="29"/>
-      <c r="AC15" s="29"/>
-      <c r="AD15" s="29"/>
-      <c r="AE15" s="30"/>
-      <c r="AF15" s="28"/>
-      <c r="AG15" s="29"/>
-      <c r="AH15" s="29"/>
-      <c r="AI15" s="29"/>
-      <c r="AJ15" s="29"/>
-      <c r="AK15" s="30"/>
+      <c r="AA15" s="48"/>
+      <c r="AB15" s="49"/>
+      <c r="AC15" s="49"/>
+      <c r="AD15" s="49"/>
+      <c r="AE15" s="50"/>
+      <c r="AF15" s="48"/>
+      <c r="AG15" s="49"/>
+      <c r="AH15" s="49"/>
+      <c r="AI15" s="49"/>
+      <c r="AJ15" s="49"/>
+      <c r="AK15" s="50"/>
       <c r="AL15" s="17"/>
       <c r="AM15" s="14"/>
       <c r="AN15" s="14"/>
@@ -2368,17 +2383,17 @@
       <c r="X16" s="14"/>
       <c r="Y16" s="14"/>
       <c r="Z16" s="16"/>
-      <c r="AA16" s="28"/>
-      <c r="AB16" s="29"/>
-      <c r="AC16" s="29"/>
-      <c r="AD16" s="29"/>
-      <c r="AE16" s="30"/>
-      <c r="AF16" s="28"/>
-      <c r="AG16" s="29"/>
-      <c r="AH16" s="29"/>
-      <c r="AI16" s="29"/>
-      <c r="AJ16" s="29"/>
-      <c r="AK16" s="30"/>
+      <c r="AA16" s="48"/>
+      <c r="AB16" s="49"/>
+      <c r="AC16" s="49"/>
+      <c r="AD16" s="49"/>
+      <c r="AE16" s="50"/>
+      <c r="AF16" s="48"/>
+      <c r="AG16" s="49"/>
+      <c r="AH16" s="49"/>
+      <c r="AI16" s="49"/>
+      <c r="AJ16" s="49"/>
+      <c r="AK16" s="50"/>
       <c r="AL16" s="17"/>
       <c r="AM16" s="14"/>
       <c r="AN16" s="14"/>
@@ -2447,17 +2462,17 @@
       <c r="X17" s="14"/>
       <c r="Y17" s="14"/>
       <c r="Z17" s="16"/>
-      <c r="AA17" s="28"/>
-      <c r="AB17" s="29"/>
-      <c r="AC17" s="29"/>
-      <c r="AD17" s="29"/>
-      <c r="AE17" s="30"/>
-      <c r="AF17" s="28"/>
-      <c r="AG17" s="29"/>
-      <c r="AH17" s="29"/>
-      <c r="AI17" s="29"/>
-      <c r="AJ17" s="29"/>
-      <c r="AK17" s="30"/>
+      <c r="AA17" s="48"/>
+      <c r="AB17" s="49"/>
+      <c r="AC17" s="49"/>
+      <c r="AD17" s="49"/>
+      <c r="AE17" s="50"/>
+      <c r="AF17" s="48"/>
+      <c r="AG17" s="49"/>
+      <c r="AH17" s="49"/>
+      <c r="AI17" s="49"/>
+      <c r="AJ17" s="49"/>
+      <c r="AK17" s="50"/>
       <c r="AL17" s="17"/>
       <c r="AM17" s="14"/>
       <c r="AN17" s="14"/>
@@ -2526,17 +2541,17 @@
       <c r="X18" s="14"/>
       <c r="Y18" s="14"/>
       <c r="Z18" s="16"/>
-      <c r="AA18" s="28"/>
-      <c r="AB18" s="29"/>
-      <c r="AC18" s="29"/>
-      <c r="AD18" s="29"/>
-      <c r="AE18" s="30"/>
-      <c r="AF18" s="28"/>
-      <c r="AG18" s="29"/>
-      <c r="AH18" s="29"/>
-      <c r="AI18" s="29"/>
-      <c r="AJ18" s="29"/>
-      <c r="AK18" s="30"/>
+      <c r="AA18" s="48"/>
+      <c r="AB18" s="49"/>
+      <c r="AC18" s="49"/>
+      <c r="AD18" s="49"/>
+      <c r="AE18" s="50"/>
+      <c r="AF18" s="48"/>
+      <c r="AG18" s="49"/>
+      <c r="AH18" s="49"/>
+      <c r="AI18" s="49"/>
+      <c r="AJ18" s="49"/>
+      <c r="AK18" s="50"/>
       <c r="AL18" s="17"/>
       <c r="AM18" s="14"/>
       <c r="AN18" s="14"/>
@@ -2605,17 +2620,17 @@
       <c r="X19" s="14"/>
       <c r="Y19" s="14"/>
       <c r="Z19" s="16"/>
-      <c r="AA19" s="28"/>
-      <c r="AB19" s="29"/>
-      <c r="AC19" s="29"/>
-      <c r="AD19" s="29"/>
-      <c r="AE19" s="30"/>
-      <c r="AF19" s="28"/>
-      <c r="AG19" s="29"/>
-      <c r="AH19" s="29"/>
-      <c r="AI19" s="29"/>
-      <c r="AJ19" s="29"/>
-      <c r="AK19" s="30"/>
+      <c r="AA19" s="48"/>
+      <c r="AB19" s="49"/>
+      <c r="AC19" s="49"/>
+      <c r="AD19" s="49"/>
+      <c r="AE19" s="50"/>
+      <c r="AF19" s="48"/>
+      <c r="AG19" s="49"/>
+      <c r="AH19" s="49"/>
+      <c r="AI19" s="49"/>
+      <c r="AJ19" s="49"/>
+      <c r="AK19" s="50"/>
       <c r="AL19" s="17"/>
       <c r="AM19" s="14"/>
       <c r="AN19" s="14"/>
@@ -2684,17 +2699,17 @@
       <c r="X20" s="14"/>
       <c r="Y20" s="14"/>
       <c r="Z20" s="16"/>
-      <c r="AA20" s="28"/>
-      <c r="AB20" s="29"/>
-      <c r="AC20" s="29"/>
-      <c r="AD20" s="29"/>
-      <c r="AE20" s="30"/>
-      <c r="AF20" s="28"/>
-      <c r="AG20" s="29"/>
-      <c r="AH20" s="29"/>
-      <c r="AI20" s="29"/>
-      <c r="AJ20" s="29"/>
-      <c r="AK20" s="30"/>
+      <c r="AA20" s="48"/>
+      <c r="AB20" s="49"/>
+      <c r="AC20" s="49"/>
+      <c r="AD20" s="49"/>
+      <c r="AE20" s="50"/>
+      <c r="AF20" s="48"/>
+      <c r="AG20" s="49"/>
+      <c r="AH20" s="49"/>
+      <c r="AI20" s="49"/>
+      <c r="AJ20" s="49"/>
+      <c r="AK20" s="50"/>
       <c r="AL20" s="17"/>
       <c r="AM20" s="14"/>
       <c r="AN20" s="14"/>
@@ -2763,17 +2778,17 @@
       <c r="X21" s="14"/>
       <c r="Y21" s="14"/>
       <c r="Z21" s="16"/>
-      <c r="AA21" s="28"/>
-      <c r="AB21" s="29"/>
-      <c r="AC21" s="29"/>
-      <c r="AD21" s="29"/>
-      <c r="AE21" s="30"/>
-      <c r="AF21" s="28"/>
-      <c r="AG21" s="29"/>
-      <c r="AH21" s="29"/>
-      <c r="AI21" s="29"/>
-      <c r="AJ21" s="29"/>
-      <c r="AK21" s="30"/>
+      <c r="AA21" s="48"/>
+      <c r="AB21" s="49"/>
+      <c r="AC21" s="49"/>
+      <c r="AD21" s="49"/>
+      <c r="AE21" s="50"/>
+      <c r="AF21" s="48"/>
+      <c r="AG21" s="49"/>
+      <c r="AH21" s="49"/>
+      <c r="AI21" s="49"/>
+      <c r="AJ21" s="49"/>
+      <c r="AK21" s="50"/>
       <c r="AL21" s="17"/>
       <c r="AM21" s="14"/>
       <c r="AN21" s="14"/>
@@ -2842,17 +2857,17 @@
       <c r="X22" s="14"/>
       <c r="Y22" s="14"/>
       <c r="Z22" s="16"/>
-      <c r="AA22" s="28"/>
-      <c r="AB22" s="29"/>
-      <c r="AC22" s="29"/>
-      <c r="AD22" s="29"/>
-      <c r="AE22" s="30"/>
-      <c r="AF22" s="28"/>
-      <c r="AG22" s="29"/>
-      <c r="AH22" s="29"/>
-      <c r="AI22" s="29"/>
-      <c r="AJ22" s="29"/>
-      <c r="AK22" s="30"/>
+      <c r="AA22" s="48"/>
+      <c r="AB22" s="49"/>
+      <c r="AC22" s="49"/>
+      <c r="AD22" s="49"/>
+      <c r="AE22" s="50"/>
+      <c r="AF22" s="48"/>
+      <c r="AG22" s="49"/>
+      <c r="AH22" s="49"/>
+      <c r="AI22" s="49"/>
+      <c r="AJ22" s="49"/>
+      <c r="AK22" s="50"/>
       <c r="AL22" s="17"/>
       <c r="AM22" s="14"/>
       <c r="AN22" s="14"/>
@@ -2921,17 +2936,17 @@
       <c r="X23" s="14"/>
       <c r="Y23" s="14"/>
       <c r="Z23" s="16"/>
-      <c r="AA23" s="28"/>
-      <c r="AB23" s="29"/>
-      <c r="AC23" s="29"/>
-      <c r="AD23" s="29"/>
-      <c r="AE23" s="30"/>
-      <c r="AF23" s="28"/>
-      <c r="AG23" s="29"/>
-      <c r="AH23" s="29"/>
-      <c r="AI23" s="29"/>
-      <c r="AJ23" s="29"/>
-      <c r="AK23" s="30"/>
+      <c r="AA23" s="48"/>
+      <c r="AB23" s="49"/>
+      <c r="AC23" s="49"/>
+      <c r="AD23" s="49"/>
+      <c r="AE23" s="50"/>
+      <c r="AF23" s="48"/>
+      <c r="AG23" s="49"/>
+      <c r="AH23" s="49"/>
+      <c r="AI23" s="49"/>
+      <c r="AJ23" s="49"/>
+      <c r="AK23" s="50"/>
       <c r="AL23" s="17"/>
       <c r="AM23" s="14"/>
       <c r="AN23" s="14"/>
@@ -3000,17 +3015,17 @@
       <c r="X24" s="14"/>
       <c r="Y24" s="14"/>
       <c r="Z24" s="16"/>
-      <c r="AA24" s="28"/>
-      <c r="AB24" s="29"/>
-      <c r="AC24" s="29"/>
-      <c r="AD24" s="29"/>
-      <c r="AE24" s="30"/>
-      <c r="AF24" s="28"/>
-      <c r="AG24" s="29"/>
-      <c r="AH24" s="29"/>
-      <c r="AI24" s="29"/>
-      <c r="AJ24" s="29"/>
-      <c r="AK24" s="30"/>
+      <c r="AA24" s="48"/>
+      <c r="AB24" s="49"/>
+      <c r="AC24" s="49"/>
+      <c r="AD24" s="49"/>
+      <c r="AE24" s="50"/>
+      <c r="AF24" s="48"/>
+      <c r="AG24" s="49"/>
+      <c r="AH24" s="49"/>
+      <c r="AI24" s="49"/>
+      <c r="AJ24" s="49"/>
+      <c r="AK24" s="50"/>
       <c r="AL24" s="17"/>
       <c r="AM24" s="14"/>
       <c r="AN24" s="14"/>
@@ -3079,17 +3094,17 @@
       <c r="X25" s="14"/>
       <c r="Y25" s="14"/>
       <c r="Z25" s="16"/>
-      <c r="AA25" s="28"/>
-      <c r="AB25" s="29"/>
-      <c r="AC25" s="29"/>
-      <c r="AD25" s="29"/>
-      <c r="AE25" s="30"/>
-      <c r="AF25" s="28"/>
-      <c r="AG25" s="29"/>
-      <c r="AH25" s="29"/>
-      <c r="AI25" s="29"/>
-      <c r="AJ25" s="29"/>
-      <c r="AK25" s="30"/>
+      <c r="AA25" s="48"/>
+      <c r="AB25" s="49"/>
+      <c r="AC25" s="49"/>
+      <c r="AD25" s="49"/>
+      <c r="AE25" s="50"/>
+      <c r="AF25" s="48"/>
+      <c r="AG25" s="49"/>
+      <c r="AH25" s="49"/>
+      <c r="AI25" s="49"/>
+      <c r="AJ25" s="49"/>
+      <c r="AK25" s="50"/>
       <c r="AL25" s="17"/>
       <c r="AM25" s="14"/>
       <c r="AN25" s="14"/>
@@ -3158,17 +3173,17 @@
       <c r="X26" s="14"/>
       <c r="Y26" s="14"/>
       <c r="Z26" s="16"/>
-      <c r="AA26" s="28"/>
-      <c r="AB26" s="29"/>
-      <c r="AC26" s="29"/>
-      <c r="AD26" s="29"/>
-      <c r="AE26" s="30"/>
-      <c r="AF26" s="28"/>
-      <c r="AG26" s="29"/>
-      <c r="AH26" s="29"/>
-      <c r="AI26" s="29"/>
-      <c r="AJ26" s="29"/>
-      <c r="AK26" s="30"/>
+      <c r="AA26" s="48"/>
+      <c r="AB26" s="49"/>
+      <c r="AC26" s="49"/>
+      <c r="AD26" s="49"/>
+      <c r="AE26" s="50"/>
+      <c r="AF26" s="48"/>
+      <c r="AG26" s="49"/>
+      <c r="AH26" s="49"/>
+      <c r="AI26" s="49"/>
+      <c r="AJ26" s="49"/>
+      <c r="AK26" s="50"/>
       <c r="AL26" s="17"/>
       <c r="AM26" s="14"/>
       <c r="AN26" s="14"/>
@@ -3237,17 +3252,17 @@
       <c r="X27" s="14"/>
       <c r="Y27" s="14"/>
       <c r="Z27" s="16"/>
-      <c r="AA27" s="28"/>
-      <c r="AB27" s="29"/>
-      <c r="AC27" s="29"/>
-      <c r="AD27" s="29"/>
-      <c r="AE27" s="30"/>
-      <c r="AF27" s="28"/>
-      <c r="AG27" s="29"/>
-      <c r="AH27" s="29"/>
-      <c r="AI27" s="29"/>
-      <c r="AJ27" s="29"/>
-      <c r="AK27" s="30"/>
+      <c r="AA27" s="48"/>
+      <c r="AB27" s="49"/>
+      <c r="AC27" s="49"/>
+      <c r="AD27" s="49"/>
+      <c r="AE27" s="50"/>
+      <c r="AF27" s="48"/>
+      <c r="AG27" s="49"/>
+      <c r="AH27" s="49"/>
+      <c r="AI27" s="49"/>
+      <c r="AJ27" s="49"/>
+      <c r="AK27" s="50"/>
       <c r="AL27" s="17"/>
       <c r="AM27" s="14"/>
       <c r="AN27" s="14"/>
@@ -3316,17 +3331,17 @@
       <c r="X28" s="14"/>
       <c r="Y28" s="14"/>
       <c r="Z28" s="16"/>
-      <c r="AA28" s="28"/>
-      <c r="AB28" s="29"/>
-      <c r="AC28" s="29"/>
-      <c r="AD28" s="29"/>
-      <c r="AE28" s="30"/>
-      <c r="AF28" s="28"/>
-      <c r="AG28" s="29"/>
-      <c r="AH28" s="29"/>
-      <c r="AI28" s="29"/>
-      <c r="AJ28" s="29"/>
-      <c r="AK28" s="30"/>
+      <c r="AA28" s="48"/>
+      <c r="AB28" s="49"/>
+      <c r="AC28" s="49"/>
+      <c r="AD28" s="49"/>
+      <c r="AE28" s="50"/>
+      <c r="AF28" s="48"/>
+      <c r="AG28" s="49"/>
+      <c r="AH28" s="49"/>
+      <c r="AI28" s="49"/>
+      <c r="AJ28" s="49"/>
+      <c r="AK28" s="50"/>
       <c r="AL28" s="17"/>
       <c r="AM28" s="14"/>
       <c r="AN28" s="14"/>
@@ -3395,17 +3410,17 @@
       <c r="X29" s="14"/>
       <c r="Y29" s="14"/>
       <c r="Z29" s="16"/>
-      <c r="AA29" s="28"/>
-      <c r="AB29" s="29"/>
-      <c r="AC29" s="29"/>
-      <c r="AD29" s="29"/>
-      <c r="AE29" s="30"/>
-      <c r="AF29" s="28"/>
-      <c r="AG29" s="29"/>
-      <c r="AH29" s="29"/>
-      <c r="AI29" s="29"/>
-      <c r="AJ29" s="29"/>
-      <c r="AK29" s="30"/>
+      <c r="AA29" s="48"/>
+      <c r="AB29" s="49"/>
+      <c r="AC29" s="49"/>
+      <c r="AD29" s="49"/>
+      <c r="AE29" s="50"/>
+      <c r="AF29" s="48"/>
+      <c r="AG29" s="49"/>
+      <c r="AH29" s="49"/>
+      <c r="AI29" s="49"/>
+      <c r="AJ29" s="49"/>
+      <c r="AK29" s="50"/>
       <c r="AL29" s="17"/>
       <c r="AM29" s="14"/>
       <c r="AN29" s="14"/>
@@ -3474,17 +3489,17 @@
       <c r="X30" s="14"/>
       <c r="Y30" s="14"/>
       <c r="Z30" s="16"/>
-      <c r="AA30" s="28"/>
-      <c r="AB30" s="29"/>
-      <c r="AC30" s="29"/>
-      <c r="AD30" s="29"/>
-      <c r="AE30" s="30"/>
-      <c r="AF30" s="28"/>
-      <c r="AG30" s="29"/>
-      <c r="AH30" s="29"/>
-      <c r="AI30" s="29"/>
-      <c r="AJ30" s="29"/>
-      <c r="AK30" s="30"/>
+      <c r="AA30" s="48"/>
+      <c r="AB30" s="49"/>
+      <c r="AC30" s="49"/>
+      <c r="AD30" s="49"/>
+      <c r="AE30" s="50"/>
+      <c r="AF30" s="48"/>
+      <c r="AG30" s="49"/>
+      <c r="AH30" s="49"/>
+      <c r="AI30" s="49"/>
+      <c r="AJ30" s="49"/>
+      <c r="AK30" s="50"/>
       <c r="AL30" s="17"/>
       <c r="AM30" s="14"/>
       <c r="AN30" s="14"/>
@@ -3553,17 +3568,17 @@
       <c r="X31" s="14"/>
       <c r="Y31" s="14"/>
       <c r="Z31" s="16"/>
-      <c r="AA31" s="28"/>
-      <c r="AB31" s="29"/>
-      <c r="AC31" s="29"/>
-      <c r="AD31" s="29"/>
-      <c r="AE31" s="30"/>
-      <c r="AF31" s="28"/>
-      <c r="AG31" s="29"/>
-      <c r="AH31" s="29"/>
-      <c r="AI31" s="29"/>
-      <c r="AJ31" s="29"/>
-      <c r="AK31" s="30"/>
+      <c r="AA31" s="48"/>
+      <c r="AB31" s="49"/>
+      <c r="AC31" s="49"/>
+      <c r="AD31" s="49"/>
+      <c r="AE31" s="50"/>
+      <c r="AF31" s="48"/>
+      <c r="AG31" s="49"/>
+      <c r="AH31" s="49"/>
+      <c r="AI31" s="49"/>
+      <c r="AJ31" s="49"/>
+      <c r="AK31" s="50"/>
       <c r="AL31" s="17"/>
       <c r="AM31" s="14"/>
       <c r="AN31" s="14"/>
@@ -3632,17 +3647,17 @@
       <c r="X32" s="14"/>
       <c r="Y32" s="14"/>
       <c r="Z32" s="16"/>
-      <c r="AA32" s="28"/>
-      <c r="AB32" s="29"/>
-      <c r="AC32" s="29"/>
-      <c r="AD32" s="29"/>
-      <c r="AE32" s="30"/>
-      <c r="AF32" s="28"/>
-      <c r="AG32" s="29"/>
-      <c r="AH32" s="29"/>
-      <c r="AI32" s="29"/>
-      <c r="AJ32" s="29"/>
-      <c r="AK32" s="30"/>
+      <c r="AA32" s="48"/>
+      <c r="AB32" s="49"/>
+      <c r="AC32" s="49"/>
+      <c r="AD32" s="49"/>
+      <c r="AE32" s="50"/>
+      <c r="AF32" s="48"/>
+      <c r="AG32" s="49"/>
+      <c r="AH32" s="49"/>
+      <c r="AI32" s="49"/>
+      <c r="AJ32" s="49"/>
+      <c r="AK32" s="50"/>
       <c r="AL32" s="17"/>
       <c r="AM32" s="14"/>
       <c r="AN32" s="14"/>
@@ -3711,17 +3726,17 @@
       <c r="X33" s="14"/>
       <c r="Y33" s="14"/>
       <c r="Z33" s="16"/>
-      <c r="AA33" s="28"/>
-      <c r="AB33" s="29"/>
-      <c r="AC33" s="29"/>
-      <c r="AD33" s="29"/>
-      <c r="AE33" s="30"/>
-      <c r="AF33" s="28"/>
-      <c r="AG33" s="29"/>
-      <c r="AH33" s="29"/>
-      <c r="AI33" s="29"/>
-      <c r="AJ33" s="29"/>
-      <c r="AK33" s="30"/>
+      <c r="AA33" s="48"/>
+      <c r="AB33" s="49"/>
+      <c r="AC33" s="49"/>
+      <c r="AD33" s="49"/>
+      <c r="AE33" s="50"/>
+      <c r="AF33" s="48"/>
+      <c r="AG33" s="49"/>
+      <c r="AH33" s="49"/>
+      <c r="AI33" s="49"/>
+      <c r="AJ33" s="49"/>
+      <c r="AK33" s="50"/>
       <c r="AL33" s="17"/>
       <c r="AM33" s="14"/>
       <c r="AN33" s="14"/>
@@ -3790,17 +3805,17 @@
       <c r="X34" s="14"/>
       <c r="Y34" s="14"/>
       <c r="Z34" s="16"/>
-      <c r="AA34" s="28"/>
-      <c r="AB34" s="29"/>
-      <c r="AC34" s="29"/>
-      <c r="AD34" s="29"/>
-      <c r="AE34" s="30"/>
-      <c r="AF34" s="28"/>
-      <c r="AG34" s="29"/>
-      <c r="AH34" s="29"/>
-      <c r="AI34" s="29"/>
-      <c r="AJ34" s="29"/>
-      <c r="AK34" s="30"/>
+      <c r="AA34" s="48"/>
+      <c r="AB34" s="49"/>
+      <c r="AC34" s="49"/>
+      <c r="AD34" s="49"/>
+      <c r="AE34" s="50"/>
+      <c r="AF34" s="48"/>
+      <c r="AG34" s="49"/>
+      <c r="AH34" s="49"/>
+      <c r="AI34" s="49"/>
+      <c r="AJ34" s="49"/>
+      <c r="AK34" s="50"/>
       <c r="AL34" s="17"/>
       <c r="AM34" s="14"/>
       <c r="AN34" s="14"/>
@@ -3869,17 +3884,17 @@
       <c r="X35" s="14"/>
       <c r="Y35" s="14"/>
       <c r="Z35" s="16"/>
-      <c r="AA35" s="28"/>
-      <c r="AB35" s="29"/>
-      <c r="AC35" s="29"/>
-      <c r="AD35" s="29"/>
-      <c r="AE35" s="30"/>
-      <c r="AF35" s="28"/>
-      <c r="AG35" s="29"/>
-      <c r="AH35" s="29"/>
-      <c r="AI35" s="29"/>
-      <c r="AJ35" s="29"/>
-      <c r="AK35" s="30"/>
+      <c r="AA35" s="48"/>
+      <c r="AB35" s="49"/>
+      <c r="AC35" s="49"/>
+      <c r="AD35" s="49"/>
+      <c r="AE35" s="50"/>
+      <c r="AF35" s="48"/>
+      <c r="AG35" s="49"/>
+      <c r="AH35" s="49"/>
+      <c r="AI35" s="49"/>
+      <c r="AJ35" s="49"/>
+      <c r="AK35" s="50"/>
       <c r="AL35" s="17"/>
       <c r="AM35" s="14"/>
       <c r="AN35" s="14"/>
@@ -3948,17 +3963,17 @@
       <c r="X36" s="14"/>
       <c r="Y36" s="14"/>
       <c r="Z36" s="16"/>
-      <c r="AA36" s="28"/>
-      <c r="AB36" s="29"/>
-      <c r="AC36" s="29"/>
-      <c r="AD36" s="29"/>
-      <c r="AE36" s="30"/>
-      <c r="AF36" s="28"/>
-      <c r="AG36" s="29"/>
-      <c r="AH36" s="29"/>
-      <c r="AI36" s="29"/>
-      <c r="AJ36" s="29"/>
-      <c r="AK36" s="30"/>
+      <c r="AA36" s="48"/>
+      <c r="AB36" s="49"/>
+      <c r="AC36" s="49"/>
+      <c r="AD36" s="49"/>
+      <c r="AE36" s="50"/>
+      <c r="AF36" s="48"/>
+      <c r="AG36" s="49"/>
+      <c r="AH36" s="49"/>
+      <c r="AI36" s="49"/>
+      <c r="AJ36" s="49"/>
+      <c r="AK36" s="50"/>
       <c r="AL36" s="17"/>
       <c r="AM36" s="14"/>
       <c r="AN36" s="14"/>
@@ -4027,17 +4042,17 @@
       <c r="X37" s="14"/>
       <c r="Y37" s="14"/>
       <c r="Z37" s="16"/>
-      <c r="AA37" s="28"/>
-      <c r="AB37" s="29"/>
-      <c r="AC37" s="29"/>
-      <c r="AD37" s="29"/>
-      <c r="AE37" s="30"/>
-      <c r="AF37" s="28"/>
-      <c r="AG37" s="29"/>
-      <c r="AH37" s="29"/>
-      <c r="AI37" s="29"/>
-      <c r="AJ37" s="29"/>
-      <c r="AK37" s="30"/>
+      <c r="AA37" s="48"/>
+      <c r="AB37" s="49"/>
+      <c r="AC37" s="49"/>
+      <c r="AD37" s="49"/>
+      <c r="AE37" s="50"/>
+      <c r="AF37" s="48"/>
+      <c r="AG37" s="49"/>
+      <c r="AH37" s="49"/>
+      <c r="AI37" s="49"/>
+      <c r="AJ37" s="49"/>
+      <c r="AK37" s="50"/>
       <c r="AL37" s="17"/>
       <c r="AM37" s="14"/>
       <c r="AN37" s="14"/>
@@ -4106,17 +4121,17 @@
       <c r="X38" s="14"/>
       <c r="Y38" s="14"/>
       <c r="Z38" s="16"/>
-      <c r="AA38" s="28"/>
-      <c r="AB38" s="29"/>
-      <c r="AC38" s="29"/>
-      <c r="AD38" s="29"/>
-      <c r="AE38" s="30"/>
-      <c r="AF38" s="28"/>
-      <c r="AG38" s="29"/>
-      <c r="AH38" s="29"/>
-      <c r="AI38" s="29"/>
-      <c r="AJ38" s="29"/>
-      <c r="AK38" s="30"/>
+      <c r="AA38" s="48"/>
+      <c r="AB38" s="49"/>
+      <c r="AC38" s="49"/>
+      <c r="AD38" s="49"/>
+      <c r="AE38" s="50"/>
+      <c r="AF38" s="48"/>
+      <c r="AG38" s="49"/>
+      <c r="AH38" s="49"/>
+      <c r="AI38" s="49"/>
+      <c r="AJ38" s="49"/>
+      <c r="AK38" s="50"/>
       <c r="AL38" s="17"/>
       <c r="AM38" s="14"/>
       <c r="AN38" s="14"/>
@@ -4158,73 +4173,6 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:Z3"/>
-    <mergeCell ref="C4:N4"/>
-    <mergeCell ref="O4:Z4"/>
-    <mergeCell ref="AL3:BW4"/>
-    <mergeCell ref="AA3:AE4"/>
-    <mergeCell ref="AF3:AK4"/>
-    <mergeCell ref="AA5:AE5"/>
-    <mergeCell ref="AF5:AK5"/>
-    <mergeCell ref="AA6:AE6"/>
-    <mergeCell ref="AF6:AK6"/>
-    <mergeCell ref="AA7:AE7"/>
-    <mergeCell ref="AF7:AK7"/>
-    <mergeCell ref="AA8:AE8"/>
-    <mergeCell ref="AF8:AK8"/>
-    <mergeCell ref="AA9:AE9"/>
-    <mergeCell ref="AF9:AK9"/>
-    <mergeCell ref="AA10:AE10"/>
-    <mergeCell ref="AF10:AK10"/>
-    <mergeCell ref="AA11:AE11"/>
-    <mergeCell ref="AF11:AK11"/>
-    <mergeCell ref="AA12:AE12"/>
-    <mergeCell ref="AF12:AK12"/>
-    <mergeCell ref="AA13:AE13"/>
-    <mergeCell ref="AF13:AK13"/>
-    <mergeCell ref="AA14:AE14"/>
-    <mergeCell ref="AF14:AK14"/>
-    <mergeCell ref="AA15:AE15"/>
-    <mergeCell ref="AF15:AK15"/>
-    <mergeCell ref="AA16:AE16"/>
-    <mergeCell ref="AF16:AK16"/>
-    <mergeCell ref="AA17:AE17"/>
-    <mergeCell ref="AF17:AK17"/>
-    <mergeCell ref="AA18:AE18"/>
-    <mergeCell ref="AF18:AK18"/>
-    <mergeCell ref="AA19:AE19"/>
-    <mergeCell ref="AF19:AK19"/>
-    <mergeCell ref="AA20:AE20"/>
-    <mergeCell ref="AF20:AK20"/>
-    <mergeCell ref="AA21:AE21"/>
-    <mergeCell ref="AF21:AK21"/>
-    <mergeCell ref="AA22:AE22"/>
-    <mergeCell ref="AF22:AK22"/>
-    <mergeCell ref="AA23:AE23"/>
-    <mergeCell ref="AF23:AK23"/>
-    <mergeCell ref="AA24:AE24"/>
-    <mergeCell ref="AF24:AK24"/>
-    <mergeCell ref="AA25:AE25"/>
-    <mergeCell ref="AF25:AK25"/>
-    <mergeCell ref="AA26:AE26"/>
-    <mergeCell ref="AF26:AK26"/>
-    <mergeCell ref="AA27:AE27"/>
-    <mergeCell ref="AF27:AK27"/>
-    <mergeCell ref="AA28:AE28"/>
-    <mergeCell ref="AF28:AK28"/>
-    <mergeCell ref="AA29:AE29"/>
-    <mergeCell ref="AF29:AK29"/>
-    <mergeCell ref="AA30:AE30"/>
-    <mergeCell ref="AF30:AK30"/>
-    <mergeCell ref="AA31:AE31"/>
-    <mergeCell ref="AF31:AK31"/>
-    <mergeCell ref="AA32:AE32"/>
-    <mergeCell ref="AF32:AK32"/>
-    <mergeCell ref="AA33:AE33"/>
-    <mergeCell ref="AF33:AK33"/>
-    <mergeCell ref="AA34:AE34"/>
-    <mergeCell ref="AF34:AK34"/>
     <mergeCell ref="AA38:AE38"/>
     <mergeCell ref="AF38:AK38"/>
     <mergeCell ref="AA35:AE35"/>
@@ -4233,6 +4181,73 @@
     <mergeCell ref="AF36:AK36"/>
     <mergeCell ref="AA37:AE37"/>
     <mergeCell ref="AF37:AK37"/>
+    <mergeCell ref="AA32:AE32"/>
+    <mergeCell ref="AF32:AK32"/>
+    <mergeCell ref="AA33:AE33"/>
+    <mergeCell ref="AF33:AK33"/>
+    <mergeCell ref="AA34:AE34"/>
+    <mergeCell ref="AF34:AK34"/>
+    <mergeCell ref="AA29:AE29"/>
+    <mergeCell ref="AF29:AK29"/>
+    <mergeCell ref="AA30:AE30"/>
+    <mergeCell ref="AF30:AK30"/>
+    <mergeCell ref="AA31:AE31"/>
+    <mergeCell ref="AF31:AK31"/>
+    <mergeCell ref="AA26:AE26"/>
+    <mergeCell ref="AF26:AK26"/>
+    <mergeCell ref="AA27:AE27"/>
+    <mergeCell ref="AF27:AK27"/>
+    <mergeCell ref="AA28:AE28"/>
+    <mergeCell ref="AF28:AK28"/>
+    <mergeCell ref="AA23:AE23"/>
+    <mergeCell ref="AF23:AK23"/>
+    <mergeCell ref="AA24:AE24"/>
+    <mergeCell ref="AF24:AK24"/>
+    <mergeCell ref="AA25:AE25"/>
+    <mergeCell ref="AF25:AK25"/>
+    <mergeCell ref="AA20:AE20"/>
+    <mergeCell ref="AF20:AK20"/>
+    <mergeCell ref="AA21:AE21"/>
+    <mergeCell ref="AF21:AK21"/>
+    <mergeCell ref="AA22:AE22"/>
+    <mergeCell ref="AF22:AK22"/>
+    <mergeCell ref="AA17:AE17"/>
+    <mergeCell ref="AF17:AK17"/>
+    <mergeCell ref="AA18:AE18"/>
+    <mergeCell ref="AF18:AK18"/>
+    <mergeCell ref="AA19:AE19"/>
+    <mergeCell ref="AF19:AK19"/>
+    <mergeCell ref="AA14:AE14"/>
+    <mergeCell ref="AF14:AK14"/>
+    <mergeCell ref="AA15:AE15"/>
+    <mergeCell ref="AF15:AK15"/>
+    <mergeCell ref="AA16:AE16"/>
+    <mergeCell ref="AF16:AK16"/>
+    <mergeCell ref="AA11:AE11"/>
+    <mergeCell ref="AF11:AK11"/>
+    <mergeCell ref="AA12:AE12"/>
+    <mergeCell ref="AF12:AK12"/>
+    <mergeCell ref="AA13:AE13"/>
+    <mergeCell ref="AF13:AK13"/>
+    <mergeCell ref="AA8:AE8"/>
+    <mergeCell ref="AF8:AK8"/>
+    <mergeCell ref="AA9:AE9"/>
+    <mergeCell ref="AF9:AK9"/>
+    <mergeCell ref="AA10:AE10"/>
+    <mergeCell ref="AF10:AK10"/>
+    <mergeCell ref="AA5:AE5"/>
+    <mergeCell ref="AF5:AK5"/>
+    <mergeCell ref="AA6:AE6"/>
+    <mergeCell ref="AF6:AK6"/>
+    <mergeCell ref="AA7:AE7"/>
+    <mergeCell ref="AF7:AK7"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:Z3"/>
+    <mergeCell ref="C4:N4"/>
+    <mergeCell ref="O4:Z4"/>
+    <mergeCell ref="AL3:BW4"/>
+    <mergeCell ref="AA3:AE4"/>
+    <mergeCell ref="AF3:AK4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -4261,34 +4276,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="44" t="s">
+      <c r="C2" s="55"/>
+      <c r="D2" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="44" t="s">
+      <c r="C4" s="52"/>
+      <c r="D4" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
     </row>
     <row r="5" spans="2:7" ht="15" thickBot="1"/>
     <row r="6" spans="2:7" ht="15" thickBot="1">
@@ -4575,34 +4590,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="44" t="s">
+      <c r="C2" s="55"/>
+      <c r="D2" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="44" t="s">
+      <c r="C4" s="52"/>
+      <c r="D4" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
     </row>
     <row r="5" spans="2:7" ht="15" thickBot="1"/>
     <row r="6" spans="2:7" ht="15" thickBot="1">
@@ -4868,88 +4883,88 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="5.875" style="49" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.5" style="49" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="49"/>
+    <col min="1" max="1" width="5.875" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.5" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="36" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16.5" thickTop="1">
-      <c r="A2" s="50">
+      <c r="A2" s="29">
         <v>1</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="31" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="54">
+      <c r="A3" s="33">
         <v>2</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="34" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="54">
+      <c r="A4" s="33">
         <v>3</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="34" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="54">
+      <c r="A5" s="33">
         <v>4</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="34" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="54">
+      <c r="A6" s="33">
         <v>5</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="34" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="54">
+      <c r="A7" s="33">
         <v>6</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="34" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="54">
+      <c r="A8" s="33">
         <v>7</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="34" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="54">
+      <c r="A9" s="33">
         <v>8</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="34" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="16.5" thickBot="1">
-      <c r="A10" s="51">
+      <c r="A10" s="30">
         <v>9</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="32" t="s">
         <v>39</v>
       </c>
     </row>
